--- a/非受控文档/需求规格说明阶段/优先级QFD打分表/PM扮演者优先级打分表_fym.xlsx
+++ b/非受控文档/需求规格说明阶段/优先级QFD打分表/PM扮演者优先级打分表_fym.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB785801-E4BE-45ED-BC95-3AB47B63BAA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDA723F-6A72-4148-A336-6AE2F0B6F21E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1109,7 +1109,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>6.6339066339066333E-2</v>
       </c>
@@ -1146,7 +1146,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
         <v>6.6339066339066333E-2</v>
       </c>
